--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.2411250703121</v>
+        <v>290.5574380972076</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.289576608839</v>
+        <v>397.5535052940859</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.4850977185575</v>
+        <v>359.6115567186666</v>
       </c>
       <c r="AD2" t="n">
-        <v>228241.1250703121</v>
+        <v>290557.4380972076</v>
       </c>
       <c r="AE2" t="n">
-        <v>312289.576608839</v>
+        <v>397553.5052940859</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.787702786913696e-06</v>
+        <v>3.022200260298555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.33680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>282485.0977185575</v>
+        <v>359611.5567186666</v>
       </c>
     </row>
     <row r="3">
@@ -2283,28 +2283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.3277748366227</v>
+        <v>215.9858011634965</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.5229523299952</v>
+        <v>295.5213017728099</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.7586565287556</v>
+        <v>267.3171634984521</v>
       </c>
       <c r="AD3" t="n">
-        <v>174327.7748366227</v>
+        <v>215985.8011634965</v>
       </c>
       <c r="AE3" t="n">
-        <v>238522.9523299952</v>
+        <v>295521.3017728099</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.238520680167964e-06</v>
+        <v>3.784330276716138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.053819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>215758.6565287556</v>
+        <v>267317.1634984521</v>
       </c>
     </row>
     <row r="4">
@@ -2389,28 +2389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.7358151040765</v>
+        <v>195.3085005763786</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.3481245707916</v>
+        <v>267.2297068914087</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.2727947872623</v>
+        <v>241.72567872502</v>
       </c>
       <c r="AD4" t="n">
-        <v>153735.8151040765</v>
+        <v>195308.5005763786</v>
       </c>
       <c r="AE4" t="n">
-        <v>210348.1245707916</v>
+        <v>267229.7068914087</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.408400178309445e-06</v>
+        <v>4.071519997099652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.411458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>190272.7947872623</v>
+        <v>241725.67872502</v>
       </c>
     </row>
     <row r="5">
@@ -2495,28 +2495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.6471277190725</v>
+        <v>189.2198131913746</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.0173138767038</v>
+        <v>258.8988961973208</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.7370649734493</v>
+        <v>234.189948911207</v>
       </c>
       <c r="AD5" t="n">
-        <v>147647.1277190725</v>
+        <v>189219.8131913746</v>
       </c>
       <c r="AE5" t="n">
-        <v>202017.3138767038</v>
+        <v>258898.8961973208</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.494040172632212e-06</v>
+        <v>4.216298656633467e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>182737.0649734493</v>
+        <v>234189.948911207</v>
       </c>
     </row>
     <row r="6">
@@ -2601,28 +2601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.8251847721079</v>
+        <v>188.3978702444101</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.8926952751038</v>
+        <v>257.7742775957208</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.7197783927736</v>
+        <v>233.1726623305313</v>
       </c>
       <c r="AD6" t="n">
-        <v>146825.184772108</v>
+        <v>188397.8702444101</v>
       </c>
       <c r="AE6" t="n">
-        <v>200892.6952751038</v>
+        <v>257774.2775957208</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505874317391449e-06</v>
+        <v>4.236304865514265e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.081597222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>181719.7783927736</v>
+        <v>233172.6623305313</v>
       </c>
     </row>
   </sheetData>
@@ -2898,28 +2898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.3908068514509</v>
+        <v>239.7583947247303</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.1328572667448</v>
+        <v>328.0480130560829</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.4015810645317</v>
+        <v>296.7395711083859</v>
       </c>
       <c r="AD2" t="n">
-        <v>189390.8068514508</v>
+        <v>239758.3947247303</v>
       </c>
       <c r="AE2" t="n">
-        <v>259132.8572667448</v>
+        <v>328048.0130560829</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.071863186221179e-06</v>
+        <v>3.58803403463311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.11284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>234401.5810645317</v>
+        <v>296739.5711083859</v>
       </c>
     </row>
     <row r="3">
@@ -3004,28 +3004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.5737582755829</v>
+        <v>186.8507783050023</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.5486824504042</v>
+        <v>255.6574781513448</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.4085976692382</v>
+        <v>231.2578872541791</v>
       </c>
       <c r="AD3" t="n">
-        <v>146573.7582755829</v>
+        <v>186850.7783050023</v>
       </c>
       <c r="AE3" t="n">
-        <v>200548.6824504042</v>
+        <v>255657.4781513448</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477837683330133e-06</v>
+        <v>4.291097017993868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.454861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>181408.5976692382</v>
+        <v>231257.8872541791</v>
       </c>
     </row>
     <row r="4">
@@ -3110,28 +3110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.8987878700091</v>
+        <v>178.1809453801659</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.9967640599633</v>
+        <v>243.7950302575554</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.2953185076302</v>
+        <v>220.527574738319</v>
       </c>
       <c r="AD4" t="n">
-        <v>127898.7878700091</v>
+        <v>178180.9453801659</v>
       </c>
       <c r="AE4" t="n">
-        <v>174996.7640599633</v>
+        <v>243795.0302575554</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632568223832969e-06</v>
+        <v>4.559057976619678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.960069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>158295.3185076302</v>
+        <v>220527.574738319</v>
       </c>
     </row>
     <row r="5">
@@ -3216,28 +3216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.097011428274</v>
+        <v>178.3791689384307</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.2679822773873</v>
+        <v>244.0662484749794</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.5406520390405</v>
+        <v>220.7729082697294</v>
       </c>
       <c r="AD5" t="n">
-        <v>128097.011428274</v>
+        <v>178379.1689384307</v>
       </c>
       <c r="AE5" t="n">
-        <v>175267.9822773873</v>
+        <v>244066.2484749794</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.630491627939829e-06</v>
+        <v>4.555461746525762e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH5" t="n">
-        <v>158540.6520390405</v>
+        <v>220772.9082697293</v>
       </c>
     </row>
   </sheetData>
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.2785407305375</v>
+        <v>153.6547518353778</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.465673391509</v>
+        <v>210.2372102302992</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.1510547380547</v>
+        <v>190.1724659557572</v>
       </c>
       <c r="AD2" t="n">
-        <v>117278.5407305375</v>
+        <v>153654.7518353778</v>
       </c>
       <c r="AE2" t="n">
-        <v>160465.673391509</v>
+        <v>210237.2102302992</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.913555584384608e-06</v>
+        <v>5.513074132864763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.029513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>145151.0547380547</v>
+        <v>190172.4659557572</v>
       </c>
     </row>
     <row r="3">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.5059848656696</v>
+        <v>153.88219597051</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.7768724913237</v>
+        <v>210.5484093301139</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.4325534325538</v>
+        <v>190.4539646502564</v>
       </c>
       <c r="AD3" t="n">
-        <v>117505.9848656696</v>
+        <v>153882.19597051</v>
       </c>
       <c r="AE3" t="n">
-        <v>160776.8724913237</v>
+        <v>210548.4093301139</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.916438585545475e-06</v>
+        <v>5.518529391453334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>145432.5534325538</v>
+        <v>190453.9646502564</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.1411816139817</v>
+        <v>171.2130455844427</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.1696384585522</v>
+        <v>234.2612423550081</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.7836238408125</v>
+        <v>211.9036781724324</v>
       </c>
       <c r="AD2" t="n">
-        <v>133141.1816139817</v>
+        <v>171213.0455844427</v>
       </c>
       <c r="AE2" t="n">
-        <v>182169.6384585522</v>
+        <v>234261.2423550081</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613134980243896e-06</v>
+        <v>4.760564426989741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.559027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>164783.6238408125</v>
+        <v>211903.6781724324</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.4373066594355</v>
+        <v>162.7497788451539</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.9464157059143</v>
+        <v>222.6814274293419</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.872231470172</v>
+        <v>201.4290245308958</v>
       </c>
       <c r="AD3" t="n">
-        <v>115437.3066594355</v>
+        <v>162749.7788451539</v>
       </c>
       <c r="AE3" t="n">
-        <v>157946.4157059143</v>
+        <v>222681.4274293419</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.818804944904185e-06</v>
+        <v>5.135250436271444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.934027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>142872.2314701719</v>
+        <v>201429.0245308958</v>
       </c>
     </row>
   </sheetData>
@@ -4319,28 +4319,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.6733140299478</v>
+        <v>146.798662552196</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.7963549346166</v>
+        <v>200.8564064037425</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.2136852707295</v>
+        <v>181.6869528803633</v>
       </c>
       <c r="AD2" t="n">
-        <v>111673.3140299478</v>
+        <v>146798.662552196</v>
       </c>
       <c r="AE2" t="n">
-        <v>152796.3549346166</v>
+        <v>200856.4064037425</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.944428578758922e-06</v>
+        <v>5.770131318102392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.246527777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>138213.6852707295</v>
+        <v>181686.9528803633</v>
       </c>
     </row>
   </sheetData>
@@ -4616,28 +4616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.7665582337615</v>
+        <v>246.5598393378206</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.8564415863171</v>
+        <v>337.3540496342677</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.2925987402743</v>
+        <v>305.1574526166561</v>
       </c>
       <c r="AD2" t="n">
-        <v>195766.5582337615</v>
+        <v>246559.8393378207</v>
       </c>
       <c r="AE2" t="n">
-        <v>267856.4415863171</v>
+        <v>337354.0496342677</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.999673507688995e-06</v>
+        <v>3.440400690693214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>242292.5987402743</v>
+        <v>305157.4526166561</v>
       </c>
     </row>
     <row r="3">
@@ -4722,28 +4722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.7733559928727</v>
+        <v>201.5665475883809</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.2947573203726</v>
+        <v>275.7922428987749</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.6062752182854</v>
+        <v>249.4710183134406</v>
       </c>
       <c r="AD3" t="n">
-        <v>150773.3559928727</v>
+        <v>201566.5475883809</v>
       </c>
       <c r="AE3" t="n">
-        <v>206294.7573203726</v>
+        <v>275792.2428987749</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.416861420488014e-06</v>
+        <v>4.158164654572177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>186606.2752182854</v>
+        <v>249471.0183134406</v>
       </c>
     </row>
     <row r="4">
@@ -4828,28 +4828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.8700853007605</v>
+        <v>182.4876599148037</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.1129095748492</v>
+        <v>249.6876670826798</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.5870459242602</v>
+        <v>225.8578265752232</v>
       </c>
       <c r="AD4" t="n">
-        <v>141870.0853007605</v>
+        <v>182487.6599148037</v>
       </c>
       <c r="AE4" t="n">
-        <v>194112.9095748492</v>
+        <v>249687.6670826798</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.570082379857758e-06</v>
+        <v>4.421778435730659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.081597222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>175587.0459242602</v>
+        <v>225857.8265752232</v>
       </c>
     </row>
     <row r="5">
@@ -4934,28 +4934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>140.554459683773</v>
+        <v>181.1720342978162</v>
       </c>
       <c r="AB5" t="n">
-        <v>192.3128125643819</v>
+        <v>247.8875700722125</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.9587476460193</v>
+        <v>224.2295282969823</v>
       </c>
       <c r="AD5" t="n">
-        <v>140554.459683773</v>
+        <v>181172.0342978162</v>
       </c>
       <c r="AE5" t="n">
-        <v>192312.8125643819</v>
+        <v>247887.5700722125</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593844430873555e-06</v>
+        <v>4.46266059794999e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.012152777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>173958.7476460193</v>
+        <v>224229.5282969823</v>
       </c>
     </row>
   </sheetData>
@@ -5231,28 +5231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.4077954322743</v>
+        <v>142.7924460179383</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.328328324769</v>
+        <v>195.3749241997743</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.1720808496096</v>
+        <v>176.7286156446314</v>
       </c>
       <c r="AD2" t="n">
-        <v>108407.7954322743</v>
+        <v>142792.4460179383</v>
       </c>
       <c r="AE2" t="n">
-        <v>148328.328324769</v>
+        <v>195374.9241997743</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.940391310790717e-06</v>
+        <v>5.894485952459114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.454861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>134172.0808496096</v>
+        <v>176728.6156446314</v>
       </c>
     </row>
   </sheetData>
@@ -5528,28 +5528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.8980565231589</v>
+        <v>209.7987230441408</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.1478192561663</v>
+        <v>287.0558685352893</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.1372203658258</v>
+        <v>259.6596593278076</v>
       </c>
       <c r="AD2" t="n">
-        <v>160898.0565231589</v>
+        <v>209798.7230441408</v>
       </c>
       <c r="AE2" t="n">
-        <v>220147.8192561663</v>
+        <v>287055.8685352893</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.311148039463741e-06</v>
+        <v>4.093214912136243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.340277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>199137.2203658258</v>
+        <v>259659.6593278076</v>
       </c>
     </row>
     <row r="3">
@@ -5634,28 +5634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.3303342838447</v>
+        <v>172.5020899150834</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.4284454862855</v>
+        <v>236.0249696768121</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.0177306890569</v>
+        <v>213.4990778340509</v>
       </c>
       <c r="AD3" t="n">
-        <v>133330.3342838447</v>
+        <v>172502.0899150834</v>
       </c>
       <c r="AE3" t="n">
-        <v>182428.4454862855</v>
+        <v>236024.9696768121</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.696364257714474e-06</v>
+        <v>4.775461458881251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.012152777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>165017.7306890569</v>
+        <v>213499.0778340509</v>
       </c>
     </row>
     <row r="4">
@@ -5740,28 +5740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.7460162007832</v>
+        <v>161.0030231780425</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.578270421004</v>
+        <v>220.2914392641799</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.6802740861404</v>
+        <v>199.2671334818467</v>
       </c>
       <c r="AD4" t="n">
-        <v>121746.0162007832</v>
+        <v>161003.0231780425</v>
       </c>
       <c r="AE4" t="n">
-        <v>166578.270421004</v>
+        <v>220291.4392641799</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.73345786281728e-06</v>
+        <v>4.841156989829118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.899305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>150680.2740861404</v>
+        <v>199267.1334818467</v>
       </c>
     </row>
   </sheetData>
@@ -6037,28 +6037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.8494343698925</v>
+        <v>222.86039283902</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.5002216836375</v>
+        <v>304.9274213888364</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.9289724563654</v>
+        <v>275.8255762598998</v>
       </c>
       <c r="AD2" t="n">
-        <v>172849.4343698925</v>
+        <v>222860.39283902</v>
       </c>
       <c r="AE2" t="n">
-        <v>236500.2216836375</v>
+        <v>304927.4213888363</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.14921576842865e-06</v>
+        <v>3.748044632328673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>213928.9724563654</v>
+        <v>275825.5762598998</v>
       </c>
     </row>
     <row r="3">
@@ -6143,28 +6143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.0903186594154</v>
+        <v>182.0138340886969</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.4142425721708</v>
+        <v>249.0393576836806</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.859620123241</v>
+        <v>225.2713909153562</v>
       </c>
       <c r="AD3" t="n">
-        <v>142090.3186594154</v>
+        <v>182013.8340886969</v>
       </c>
       <c r="AE3" t="n">
-        <v>194414.2425721708</v>
+        <v>249039.3576836806</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550149203373806e-06</v>
+        <v>4.447237533684486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>175859.620123241</v>
+        <v>225271.3909153562</v>
       </c>
     </row>
     <row r="4">
@@ -6249,28 +6249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.8413461497096</v>
+        <v>175.6816229096939</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.1816815303283</v>
+        <v>240.3753469911319</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.7489035036295</v>
+        <v>217.4342612432862</v>
       </c>
       <c r="AD4" t="n">
-        <v>125841.3461497096</v>
+        <v>175681.6229096939</v>
       </c>
       <c r="AE4" t="n">
-        <v>172181.6815303283</v>
+        <v>240375.3469911319</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.661107921507948e-06</v>
+        <v>4.640739849283443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>155748.9035036295</v>
+        <v>217434.2612432863</v>
       </c>
     </row>
     <row r="5">
@@ -6355,28 +6355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.1312860447521</v>
+        <v>175.9715628047364</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.5783900859707</v>
+        <v>240.7720555467743</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.1077507515054</v>
+        <v>217.7931084911622</v>
       </c>
       <c r="AD5" t="n">
-        <v>126131.2860447521</v>
+        <v>175971.5628047364</v>
       </c>
       <c r="AE5" t="n">
-        <v>172578.3900859707</v>
+        <v>240772.0555467743</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.659986633934535e-06</v>
+        <v>4.638784421665352e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>156107.7507515054</v>
+        <v>217793.1084911622</v>
       </c>
     </row>
   </sheetData>
@@ -6652,28 +6652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.4741850762848</v>
+        <v>271.4133961648119</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.6118213700642</v>
+        <v>371.3597825466591</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.2579914008074</v>
+        <v>335.9177261071334</v>
       </c>
       <c r="AD2" t="n">
-        <v>209474.1850762848</v>
+        <v>271413.3961648119</v>
       </c>
       <c r="AE2" t="n">
-        <v>286611.8213700642</v>
+        <v>371359.7825466591</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.862578607853584e-06</v>
+        <v>3.166260188385801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>259257.9914008074</v>
+        <v>335917.7261071334</v>
       </c>
     </row>
     <row r="3">
@@ -6758,28 +6758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.7824813843355</v>
+        <v>211.38426714901</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.6214401355272</v>
+        <v>289.2252799288394</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.7565167261736</v>
+        <v>261.622025142746</v>
       </c>
       <c r="AD3" t="n">
-        <v>159782.4813843356</v>
+        <v>211384.26714901</v>
       </c>
       <c r="AE3" t="n">
-        <v>218621.4401355272</v>
+        <v>289225.2799288394</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290695938313185e-06</v>
+        <v>3.894031276100774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.914930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>197756.5167261736</v>
+        <v>261622.025142746</v>
       </c>
     </row>
     <row r="4">
@@ -6864,28 +6864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.8976011216873</v>
+        <v>191.1620510710636</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.0965108700392</v>
+        <v>261.5563517497978</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.522387727422</v>
+        <v>236.5937806355187</v>
       </c>
       <c r="AD4" t="n">
-        <v>149897.6011216873</v>
+        <v>191162.0510710636</v>
       </c>
       <c r="AE4" t="n">
-        <v>205096.5108700392</v>
+        <v>261556.3517497978</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456663164575112e-06</v>
+        <v>4.176164561039299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.315972222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>185522.387727422</v>
+        <v>236593.7806355187</v>
       </c>
     </row>
     <row r="5">
@@ -6970,28 +6970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.7892160084315</v>
+        <v>186.0536659578078</v>
       </c>
       <c r="AB5" t="n">
-        <v>198.1069929920404</v>
+        <v>254.566833871799</v>
       </c>
       <c r="AC5" t="n">
-        <v>179.1999396258472</v>
+        <v>230.2713325339439</v>
       </c>
       <c r="AD5" t="n">
-        <v>144789.2160084315</v>
+        <v>186053.6659578078</v>
       </c>
       <c r="AE5" t="n">
-        <v>198106.9929920404</v>
+        <v>254566.833871799</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.532470706822905e-06</v>
+        <v>4.305032358611164e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.064236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>179199.9396258472</v>
+        <v>230271.3325339439</v>
       </c>
     </row>
     <row r="6">
@@ -7076,28 +7076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.9207065416333</v>
+        <v>186.1851564910096</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.28690414052</v>
+        <v>254.7467450202785</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.3626803068228</v>
+        <v>230.4340732149195</v>
       </c>
       <c r="AD6" t="n">
-        <v>144920.7065416333</v>
+        <v>186185.1564910096</v>
       </c>
       <c r="AE6" t="n">
-        <v>198286.90414052</v>
+        <v>254746.7450202785</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.531953088595266e-06</v>
+        <v>4.30415244193004e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.064236111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>179362.6803068228</v>
+        <v>230434.0732149195</v>
       </c>
     </row>
   </sheetData>
@@ -7373,28 +7373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.1334382694319</v>
+        <v>187.0888292206295</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.3685083742411</v>
+        <v>255.9831899161711</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.2000051189368</v>
+        <v>231.5525135453098</v>
       </c>
       <c r="AD2" t="n">
-        <v>139133.4382694319</v>
+        <v>187088.8292206296</v>
       </c>
       <c r="AE2" t="n">
-        <v>190368.5083742411</v>
+        <v>255983.1899161711</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503712772105218e-06</v>
+        <v>4.514786606552053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>172200.0051189368</v>
+        <v>231552.5135453098</v>
       </c>
     </row>
     <row r="3">
@@ -7479,28 +7479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.6298988947242</v>
+        <v>165.4999489913502</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.9464171325773</v>
+        <v>226.4443315523096</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.5859169712036</v>
+        <v>204.8328023656378</v>
       </c>
       <c r="AD3" t="n">
-        <v>117629.8988947242</v>
+        <v>165499.9489913502</v>
       </c>
       <c r="AE3" t="n">
-        <v>160946.4171325773</v>
+        <v>226444.3315523096</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.783857366818575e-06</v>
+        <v>5.019953604221013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.934027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>145585.9169712036</v>
+        <v>204832.8023656378</v>
       </c>
     </row>
   </sheetData>
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.9359460203106</v>
+        <v>158.8575766721945</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.8381407791934</v>
+        <v>217.3559447044603</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.9153427820747</v>
+        <v>196.6117984029133</v>
       </c>
       <c r="AD2" t="n">
-        <v>121935.9460203106</v>
+        <v>158857.5766721945</v>
       </c>
       <c r="AE2" t="n">
-        <v>166838.1407791934</v>
+        <v>217355.9447044603</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.827127484669947e-06</v>
+        <v>5.274516215624557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.142361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>150915.3427820747</v>
+        <v>196611.7984029133</v>
       </c>
     </row>
     <row r="3">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.8260077163039</v>
+        <v>156.9139285045412</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.6370330557732</v>
+        <v>214.6965595337732</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.1650074448842</v>
+        <v>194.2062212204451</v>
       </c>
       <c r="AD3" t="n">
-        <v>110826.0077163039</v>
+        <v>156913.9285045413</v>
       </c>
       <c r="AE3" t="n">
-        <v>151637.0330557732</v>
+        <v>214696.5595337732</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.881561606985587e-06</v>
+        <v>5.37607288839365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.986111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>137165.0074448842</v>
+        <v>194206.2212204451</v>
       </c>
     </row>
   </sheetData>
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.499397163813</v>
+        <v>150.2814364037627</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.6631265563576</v>
+        <v>205.6216912365921</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.7114176359409</v>
+        <v>185.9974456168865</v>
       </c>
       <c r="AD2" t="n">
-        <v>114499.397163813</v>
+        <v>150281.4364037628</v>
       </c>
       <c r="AE2" t="n">
-        <v>156663.1265563576</v>
+        <v>205621.691236592</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.937232362854066e-06</v>
+        <v>5.648406756941201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>141711.4176359409</v>
+        <v>185997.4456168865</v>
       </c>
     </row>
   </sheetData>
@@ -13697,28 +13697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.2177151565271</v>
+        <v>147.1427080524681</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.9635197550848</v>
+        <v>201.3271446354308</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.2238434837674</v>
+        <v>182.1127645159047</v>
       </c>
       <c r="AD2" t="n">
-        <v>105217.7151565271</v>
+        <v>147142.7080524681</v>
       </c>
       <c r="AE2" t="n">
-        <v>143963.5197550848</v>
+        <v>201327.1446354308</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864666620022571e-06</v>
+        <v>5.908659426389056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.923611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>130223.8434837674</v>
+        <v>182112.7645159047</v>
       </c>
     </row>
   </sheetData>
@@ -13994,28 +13994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.9587596760612</v>
+        <v>216.5098895269975</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.4403406893154</v>
+        <v>296.2383825928983</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.6383151920248</v>
+        <v>267.9658071315008</v>
       </c>
       <c r="AD2" t="n">
-        <v>166958.7596760612</v>
+        <v>216509.8895269975</v>
       </c>
       <c r="AE2" t="n">
-        <v>228440.3406893154</v>
+        <v>296238.3825928983</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.226581230768793e-06</v>
+        <v>3.912015388783739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.600694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>206638.3151920248</v>
+        <v>267965.8071315008</v>
       </c>
     </row>
     <row r="3">
@@ -14100,28 +14100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.7653771784232</v>
+        <v>177.3210297131517</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.4966668349283</v>
+        <v>242.6184557051454</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.5068095089893</v>
+        <v>219.4632908098579</v>
       </c>
       <c r="AD3" t="n">
-        <v>137765.3771784232</v>
+        <v>177321.0297131517</v>
       </c>
       <c r="AE3" t="n">
-        <v>188496.6668349283</v>
+        <v>242618.4557051454</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.617361119049473e-06</v>
+        <v>4.598600237095501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.168402777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>170506.8095089893</v>
+        <v>219463.2908098579</v>
       </c>
     </row>
     <row r="4">
@@ -14206,28 +14206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.0152979035567</v>
+        <v>173.3957460453497</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.6832017603802</v>
+        <v>237.2477094195679</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.488875136286</v>
+        <v>214.6051210118844</v>
       </c>
       <c r="AD4" t="n">
-        <v>124015.2979035567</v>
+        <v>173395.7460453497</v>
       </c>
       <c r="AE4" t="n">
-        <v>169683.2017603802</v>
+        <v>237247.7094195679</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.69461603553815e-06</v>
+        <v>4.734334077831489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.934027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>153488.875136286</v>
+        <v>214605.1210118844</v>
       </c>
     </row>
   </sheetData>
@@ -14503,28 +14503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.802729686935</v>
+        <v>265.2648294668592</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.8518858994066</v>
+        <v>362.9470423349018</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.2386532803291</v>
+        <v>328.3078860138313</v>
       </c>
       <c r="AD2" t="n">
-        <v>203802.729686935</v>
+        <v>265264.8294668592</v>
       </c>
       <c r="AE2" t="n">
-        <v>278851.8858994066</v>
+        <v>362947.0423349018</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.916124174646314e-06</v>
+        <v>3.276358801177057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.74652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>252238.6532803291</v>
+        <v>328307.8860138312</v>
       </c>
     </row>
     <row r="3">
@@ -14609,28 +14609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.5377209124898</v>
+        <v>206.7419139199953</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.8135715923353</v>
+        <v>282.8734074347346</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.5029430053473</v>
+        <v>255.8763664445675</v>
       </c>
       <c r="AD3" t="n">
-        <v>155537.7209124898</v>
+        <v>206741.9139199952</v>
       </c>
       <c r="AE3" t="n">
-        <v>212813.5715923353</v>
+        <v>282873.4074347346</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.346758658825442e-06</v>
+        <v>4.012695778184855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>192502.9430053473</v>
+        <v>255876.3664445675</v>
       </c>
     </row>
     <row r="4">
@@ -14715,28 +14715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.0590882862869</v>
+        <v>187.005464029928</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.8444882654123</v>
+        <v>255.8691259844406</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.771610788919</v>
+        <v>231.4493357151339</v>
       </c>
       <c r="AD4" t="n">
-        <v>146059.0882862869</v>
+        <v>187005.464029928</v>
       </c>
       <c r="AE4" t="n">
-        <v>199844.4882654123</v>
+        <v>255869.1259844406</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.514509674560933e-06</v>
+        <v>4.299531320517499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.185763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>180771.610788919</v>
+        <v>231449.3357151339</v>
       </c>
     </row>
     <row r="5">
@@ -14821,28 +14821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.1950584624929</v>
+        <v>183.141434206134</v>
       </c>
       <c r="AB5" t="n">
-        <v>194.5575521915353</v>
+        <v>250.5821899105636</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.9892524736698</v>
+        <v>226.6669773998847</v>
       </c>
       <c r="AD5" t="n">
-        <v>142195.0584624929</v>
+        <v>183141.434206134</v>
       </c>
       <c r="AE5" t="n">
-        <v>194557.5521915353</v>
+        <v>250582.1899105636</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.571375631952812e-06</v>
+        <v>4.396765770379096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.012152777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>175989.2524736697</v>
+        <v>226666.9773998847</v>
       </c>
     </row>
   </sheetData>
@@ -15118,28 +15118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.924004630939</v>
+        <v>158.5808937222786</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.40287264081</v>
+        <v>216.9773748859954</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0486335677696</v>
+        <v>196.2693587565965</v>
       </c>
       <c r="AD2" t="n">
-        <v>109924.004630939</v>
+        <v>158580.8937222786</v>
       </c>
       <c r="AE2" t="n">
-        <v>150402.87264081</v>
+        <v>216977.3748859954</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649856410153282e-06</v>
+        <v>5.679862785545131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.982638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>136048.6335677696</v>
+        <v>196269.3587565965</v>
       </c>
     </row>
   </sheetData>
@@ -15415,28 +15415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.8076666431631</v>
+        <v>165.2353911974596</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.8720879774079</v>
+        <v>226.0823519072425</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.1825413354098</v>
+        <v>204.5053695498542</v>
       </c>
       <c r="AD2" t="n">
-        <v>127807.6666431631</v>
+        <v>165235.3911974596</v>
       </c>
       <c r="AE2" t="n">
-        <v>174872.0879774079</v>
+        <v>226082.3519072425</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.710122562389866e-06</v>
+        <v>4.993217983066582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>158182.5413354098</v>
+        <v>204505.3695498542</v>
       </c>
     </row>
     <row r="3">
@@ -15521,28 +15521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9061058969423</v>
+        <v>159.6266440631954</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.4831151539763</v>
+        <v>218.4082166376859</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.739463462137</v>
+        <v>197.5636429797051</v>
       </c>
       <c r="AD3" t="n">
-        <v>112906.1058969423</v>
+        <v>159626.6440631954</v>
       </c>
       <c r="AE3" t="n">
-        <v>154483.1151539763</v>
+        <v>218408.2166376859</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.860384455436905e-06</v>
+        <v>5.270065383602767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.925347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>139739.463462137</v>
+        <v>197563.6429797051</v>
       </c>
     </row>
   </sheetData>
@@ -15818,28 +15818,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.0716044374842</v>
+        <v>193.9267509096442</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.1758104676253</v>
+        <v>265.3391360388904</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.9260489072761</v>
+        <v>240.0155413012326</v>
       </c>
       <c r="AD2" t="n">
-        <v>155071.6044374842</v>
+        <v>193926.7509096442</v>
       </c>
       <c r="AE2" t="n">
-        <v>212175.8104676253</v>
+        <v>265339.1360388905</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.399142198478871e-06</v>
+        <v>4.285892452310004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.105902777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>191926.0489072761</v>
+        <v>240015.5413012326</v>
       </c>
     </row>
     <row r="3">
@@ -15924,28 +15924,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.0706177096584</v>
+        <v>168.4687572050264</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.2859162920833</v>
+        <v>230.5063859248339</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.6066990179439</v>
+        <v>208.5071799699788</v>
       </c>
       <c r="AD3" t="n">
-        <v>120070.6177096584</v>
+        <v>168468.7572050264</v>
       </c>
       <c r="AE3" t="n">
-        <v>164285.9162920833</v>
+        <v>230506.3859248339</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.746239502243198e-06</v>
+        <v>4.905956454920554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>148606.6990179439</v>
+        <v>208507.1799699788</v>
       </c>
     </row>
     <row r="4">
@@ -16030,28 +16030,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.96202776065</v>
+        <v>168.360167256018</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.1373387331997</v>
+        <v>230.3578083659503</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.4723014927502</v>
+        <v>208.3727824447851</v>
       </c>
       <c r="AD4" t="n">
-        <v>119962.02776065</v>
+        <v>168360.167256018</v>
       </c>
       <c r="AE4" t="n">
-        <v>164137.3387331997</v>
+        <v>230357.8083659503</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.753333388289113e-06</v>
+        <v>4.918629164641975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.934027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>148472.3014927502</v>
+        <v>208372.7824447851</v>
       </c>
     </row>
   </sheetData>
